--- a/학사관리 데이터/샘플-학생정보데이터.xlsx
+++ b/학사관리 데이터/샘플-학생정보데이터.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="학생정보" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1656,9 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
